--- a/data/tables/paradigms.xlsx
+++ b/data/tables/paradigms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92126F99-43F8-4B37-89BB-371D26566E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/tables/paradigms.xlsx
+++ b/data/tables/paradigms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\Tsakonian tools\data\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2904E6FA-F12D-4672-A4C8-CA529E5FF388}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>notes</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>Α4</t>
+  </si>
+  <si>
+    <t>gen_sing</t>
+  </si>
+  <si>
+    <t>plural</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -338,11 +372,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:B31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B31" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D31" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D31" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{609A5B8E-5629-4586-B79B-AE1549B22E59}" name="gen_sing" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6942AB54-E07E-494E-972D-0F591766F1A1}" name="plural" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,265 +647,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tables/paradigms.xlsx
+++ b/data/tables/paradigms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2904E6FA-F12D-4672-A4C8-CA529E5FF388}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A68CE17-5859-489A-AF2D-1A83247276C9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>notes</t>
   </si>
@@ -54,9 +54,6 @@
     <t>α, pl. -λε</t>
   </si>
   <si>
-    <t>α, pl. -αε</t>
-  </si>
-  <si>
     <t>α, pl. -αδε</t>
   </si>
   <si>
@@ -217,6 +214,57 @@
   </si>
   <si>
     <t>plural</t>
+  </si>
+  <si>
+    <t>Α6</t>
+  </si>
+  <si>
+    <t>ου</t>
+  </si>
+  <si>
+    <t>ε</t>
+  </si>
+  <si>
+    <t>λε</t>
+  </si>
+  <si>
+    <t>αδε</t>
+  </si>
+  <si>
+    <t>ουδε</t>
+  </si>
+  <si>
+    <t>ματα</t>
+  </si>
+  <si>
+    <t>ια</t>
+  </si>
+  <si>
+    <t>ητα</t>
+  </si>
+  <si>
+    <t>ατα</t>
+  </si>
+  <si>
+    <t>οι</t>
+  </si>
+  <si>
+    <t>ουνε</t>
+  </si>
+  <si>
+    <t>δε</t>
+  </si>
+  <si>
+    <t>άε</t>
+  </si>
+  <si>
+    <t>α, pl. -άε</t>
+  </si>
+  <si>
+    <t>μάτου</t>
+  </si>
+  <si>
+    <t>ίου</t>
   </si>
 </sst>
 </file>
@@ -372,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D31" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D31" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D32" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="2"/>
@@ -647,83 +695,93 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -731,247 +789,289 @@
         <v>5</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/tables/paradigms.xlsx
+++ b/data/tables/paradigms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A68CE17-5859-489A-AF2D-1A83247276C9}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B354F1-9681-4D23-811E-C156F06A7FA7}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
   <si>
     <t>notes</t>
   </si>
@@ -265,6 +265,108 @@
   </si>
   <si>
     <t>ίου</t>
+  </si>
+  <si>
+    <t>γέρου</t>
+  </si>
+  <si>
+    <t>γέροι</t>
+  </si>
+  <si>
+    <t>αθή</t>
+  </si>
+  <si>
+    <t>αθήνε</t>
+  </si>
+  <si>
+    <t>ούθι</t>
+  </si>
+  <si>
+    <t>ουθίουνε</t>
+  </si>
+  <si>
+    <t>ψιλέ</t>
+  </si>
+  <si>
+    <t>ψιού</t>
+  </si>
+  <si>
+    <t>ψιλ̣οί</t>
+  </si>
+  <si>
+    <t>κούε</t>
+  </si>
+  <si>
+    <t>κουνέ</t>
+  </si>
+  <si>
+    <t>κούν̇οι</t>
+  </si>
+  <si>
+    <t>άμπελε</t>
+  </si>
+  <si>
+    <t>μάτη</t>
+  </si>
+  <si>
+    <t>μάτη / ματερί</t>
+  </si>
+  <si>
+    <t>ματέρε</t>
+  </si>
+  <si>
+    <t>σάτη</t>
+  </si>
+  <si>
+    <t>σάτη / σατερί</t>
+  </si>
+  <si>
+    <t>σατέρε</t>
+  </si>
+  <si>
+    <t>άμπελε / άμπελ̣ή</t>
+  </si>
+  <si>
+    <t>κρόπο</t>
+  </si>
+  <si>
+    <t>κρόπε</t>
+  </si>
+  <si>
+    <t>κόκαλε</t>
+  </si>
+  <si>
+    <t>κόκα</t>
+  </si>
+  <si>
+    <t>τσ̌έρβουλε</t>
+  </si>
+  <si>
+    <t>τσ̌έρβα</t>
+  </si>
+  <si>
+    <t>π̇ιτόκαλε</t>
+  </si>
+  <si>
+    <t>π̇ιτόκα</t>
+  </si>
+  <si>
+    <t>κάλ̣ι</t>
+  </si>
+  <si>
+    <t>κάβα</t>
+  </si>
+  <si>
+    <t>μάλ̣ι</t>
+  </si>
+  <si>
+    <t>μάβα</t>
+  </si>
+  <si>
+    <t>άι</t>
+  </si>
+  <si>
+    <t>άζα</t>
   </si>
 </sst>
 </file>
@@ -420,8 +522,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D32" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D32" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D47" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D47" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="2"/>
@@ -695,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,6 +1175,166 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/tables/paradigms.xlsx
+++ b/data/tables/paradigms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://havas-my.sharepoint.com/personal/jaime_garcia_globalservs_com/Documents/Desktop/Proyectos/Personal/TsakonianDB/data/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgcha\Desktop\Python\Códigos\TsakonianDB\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="13_ncr:1_{78C97BE1-9217-4986-ACE4-9B93006B3430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57B354F1-9681-4D23-811E-C156F06A7FA7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DFB3A5-C324-4E6A-B7C6-D2484F6302F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="117">
   <si>
     <t>notes</t>
   </si>
@@ -367,6 +367,15 @@
   </si>
   <si>
     <t>άζα</t>
+  </si>
+  <si>
+    <t>ύο</t>
+  </si>
+  <si>
+    <t>ύβατα</t>
+  </si>
+  <si>
+    <t>υβάτου</t>
   </si>
 </sst>
 </file>
@@ -522,8 +531,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D47" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D47" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}" name="Tabla2" displayName="Tabla2" ref="A1:D48" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D48" xr:uid="{C24BDC91-46F2-4EBF-B033-8809523F8BB9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C1DD779A-CDEE-46F1-B76C-117DD684DD75}" name="paradigm" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{4C03C951-46D8-47E8-8244-B52757673F4E}" name="notes" dataDxfId="2"/>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1344,18 @@
         <v>113</v>
       </c>
     </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
